--- a/api-doc/pagination.xlsx
+++ b/api-doc/pagination.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="5">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
   <si>
     <t>名字</t>
   </si>
@@ -31,15 +31,205 @@
   </si>
   <si>
     <t>参数</t>
+  </si>
+  <si>
+    <t>cssPrefix</t>
+  </si>
+  <si>
+    <t>string</t>
+  </si>
+  <si>
+    <t>自定义样式前缀</t>
+  </si>
+  <si>
+    <t>number</t>
+  </si>
+  <si>
+    <t>显示的数据条数</t>
+  </si>
+  <si>
+    <t>boolean</t>
+  </si>
+  <si>
+    <t>array</t>
+  </si>
+  <si>
+    <t>object</t>
+  </si>
+  <si>
+    <t>null</t>
+  </si>
+  <si>
+    <t>url</t>
+  </si>
+  <si>
+    <t>数据的远程请求路径</t>
+  </si>
+  <si>
+    <t>method</t>
+  </si>
+  <si>
+    <t>请求类型</t>
+  </si>
+  <si>
+    <t>cache</t>
+  </si>
+  <si>
+    <t>是否缓存数据</t>
+  </si>
+  <si>
+    <t>timeout</t>
+  </si>
+  <si>
+    <t>请求超时时间</t>
+  </si>
+  <si>
+    <t>root</t>
+  </si>
+  <si>
+    <t>路径根字段</t>
+  </si>
+  <si>
+    <t>params</t>
+  </si>
+  <si>
+    <t>请求参数</t>
+  </si>
+  <si>
+    <t>onAjaxBeforeSend</t>
+  </si>
+  <si>
+    <t>onAjaxComplete</t>
+  </si>
+  <si>
+    <t>onAjaxError</t>
+  </si>
+  <si>
+    <t>onAjaxSuccess</t>
+  </si>
+  <si>
+    <t>onBeforeRender</t>
+  </si>
+  <si>
+    <t>onAfterRender</t>
+  </si>
+  <si>
+    <t>response</t>
+  </si>
+  <si>
+    <t>请求发送之前</t>
+  </si>
+  <si>
+    <t>请求发送完成</t>
+  </si>
+  <si>
+    <t>请求发送出错</t>
+  </si>
+  <si>
+    <t>请求发送成功</t>
+  </si>
+  <si>
+    <t>pageSize</t>
+  </si>
+  <si>
+    <t>pageBtnCount</t>
+  </si>
+  <si>
+    <t>total</t>
+  </si>
+  <si>
+    <t>curPageIndex</t>
+  </si>
+  <si>
+    <t>pageSizeList</t>
+  </si>
+  <si>
+    <t>withRefresh</t>
+  </si>
+  <si>
+    <t>withSelect</t>
+  </si>
+  <si>
+    <t>包含的按钮数</t>
+  </si>
+  <si>
+    <t>是否包含刷新按钮</t>
+  </si>
+  <si>
+    <t>是否包含pageSize下拉框</t>
+  </si>
+  <si>
+    <t>pageSize下拉列表</t>
+  </si>
+  <si>
+    <t>[5, 10, 15, 20]</t>
+  </si>
+  <si>
+    <t>当前页码</t>
+  </si>
+  <si>
+    <t>数据总条数</t>
+  </si>
+  <si>
+    <t>pagination</t>
+  </si>
+  <si>
+    <t>onBeforeChangePage</t>
+  </si>
+  <si>
+    <t>onAfterChangePage</t>
+  </si>
+  <si>
+    <t>pagination渲染之前</t>
+  </si>
+  <si>
+    <t>pagination渲染之后</t>
+  </si>
+  <si>
+    <t>改变页码之前</t>
+  </si>
+  <si>
+    <t>改变页码之后</t>
+  </si>
+  <si>
+    <t>update</t>
+  </si>
+  <si>
+    <t>更新pagination</t>
+  </si>
+  <si>
+    <t>'s-'</t>
+  </si>
+  <si>
+    <t>'GET'</t>
+  </si>
+  <si>
+    <t>'list'</t>
+  </si>
+  <si>
+    <t>''</t>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="1" x14ac:knownFonts="1">
+  <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <sz val="12"/>
+      <color theme="1"/>
+      <name val="Consolas"/>
+      <family val="3"/>
+    </font>
+    <font>
+      <sz val="12"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -66,12 +256,26 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="9">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
     </xf>
   </cellXfs>
@@ -378,10 +582,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D25"/>
+  <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C5" sqref="C5"/>
+      <selection activeCell="K15" sqref="K15"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -392,7 +596,7 @@
     <col min="4" max="4" width="23.140625" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:8" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -406,89 +610,479 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D2" s="1"/>
-    </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D3" s="1"/>
-    </row>
-    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D4" s="1"/>
-    </row>
-    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D5" s="1"/>
-    </row>
-    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D6" s="1"/>
-    </row>
-    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D7" s="1"/>
-    </row>
-    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D8" s="1"/>
-    </row>
-    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D9" s="2"/>
-    </row>
-    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D10" s="2"/>
-    </row>
-    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D11" s="1"/>
-    </row>
-    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D12" s="2"/>
-    </row>
-    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D13" s="2"/>
-    </row>
-    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D14" s="2"/>
-    </row>
-    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D15" s="2"/>
-    </row>
-    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
-      <c r="D16" s="2"/>
-    </row>
-    <row r="17" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D17" s="2"/>
-    </row>
-    <row r="18" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D18" s="2"/>
-    </row>
-    <row r="19" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D19" s="2"/>
-    </row>
-    <row r="20" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D20" s="2"/>
-    </row>
-    <row r="21" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D21" s="2"/>
-    </row>
-    <row r="22" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D22" s="2"/>
-    </row>
-    <row r="23" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D23" s="2"/>
-    </row>
-    <row r="24" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D24" s="2"/>
-    </row>
-    <row r="25" spans="4:4" x14ac:dyDescent="0.25">
-      <c r="D25" s="2"/>
+    <row r="2" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="3" t="s">
+        <v>5</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>7</v>
+      </c>
+      <c r="D2" s="5" t="s">
+        <v>60</v>
+      </c>
+      <c r="E2" s="4"/>
+      <c r="F2" s="4"/>
+      <c r="G2" s="4"/>
+      <c r="H2" s="4"/>
+    </row>
+    <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>37</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>9</v>
+      </c>
+      <c r="D3" s="6">
+        <v>20</v>
+      </c>
+      <c r="E3" s="4"/>
+      <c r="F3" s="4"/>
+      <c r="G3" s="4"/>
+      <c r="H3" s="4"/>
+    </row>
+    <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>38</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>44</v>
+      </c>
+      <c r="D4" s="5">
+        <v>3</v>
+      </c>
+      <c r="E4" s="4"/>
+      <c r="F4" s="4"/>
+      <c r="G4" s="4"/>
+      <c r="H4" s="4"/>
+    </row>
+    <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>39</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>50</v>
+      </c>
+      <c r="D5" s="6" t="b">
+        <v>1</v>
+      </c>
+      <c r="E5" s="4"/>
+      <c r="F5" s="4"/>
+      <c r="G5" s="4"/>
+      <c r="H5" s="4"/>
+    </row>
+    <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>40</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>49</v>
+      </c>
+      <c r="D6" s="5">
+        <v>1</v>
+      </c>
+      <c r="E6" s="4"/>
+      <c r="F6" s="4"/>
+      <c r="G6" s="4"/>
+      <c r="H6" s="4"/>
+    </row>
+    <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>41</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>11</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>47</v>
+      </c>
+      <c r="D7" s="6" t="s">
+        <v>48</v>
+      </c>
+      <c r="E7" s="4"/>
+      <c r="F7" s="4"/>
+      <c r="G7" s="4"/>
+      <c r="H7" s="4"/>
+    </row>
+    <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>42</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>45</v>
+      </c>
+      <c r="D8" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E8" s="4"/>
+      <c r="F8" s="4"/>
+      <c r="G8" s="4"/>
+      <c r="H8" s="4"/>
+    </row>
+    <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>43</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D9" s="5" t="b">
+        <v>1</v>
+      </c>
+      <c r="E9" s="4"/>
+      <c r="F9" s="4"/>
+      <c r="G9" s="4"/>
+      <c r="H9" s="4"/>
+    </row>
+    <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4" t="s">
+        <v>14</v>
+      </c>
+      <c r="B10" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>15</v>
+      </c>
+      <c r="D10" s="8" t="s">
+        <v>63</v>
+      </c>
+      <c r="E10" s="4"/>
+      <c r="F10" s="4"/>
+      <c r="G10" s="4"/>
+      <c r="H10" s="4"/>
+    </row>
+    <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4" t="s">
+        <v>16</v>
+      </c>
+      <c r="B11" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C11" s="4" t="s">
+        <v>17</v>
+      </c>
+      <c r="D11" s="8" t="s">
+        <v>61</v>
+      </c>
+      <c r="E11" s="4"/>
+      <c r="F11" s="4"/>
+      <c r="G11" s="4"/>
+      <c r="H11" s="4"/>
+    </row>
+    <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4" t="s">
+        <v>18</v>
+      </c>
+      <c r="B12" s="4" t="s">
+        <v>10</v>
+      </c>
+      <c r="C12" s="4" t="s">
+        <v>19</v>
+      </c>
+      <c r="D12" s="7" t="b">
+        <v>0</v>
+      </c>
+      <c r="E12" s="4"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="4"/>
+      <c r="H12" s="4"/>
+    </row>
+    <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4" t="s">
+        <v>20</v>
+      </c>
+      <c r="B13" s="4" t="s">
+        <v>8</v>
+      </c>
+      <c r="C13" s="4" t="s">
+        <v>21</v>
+      </c>
+      <c r="D13" s="7">
+        <v>3000</v>
+      </c>
+      <c r="E13" s="4"/>
+      <c r="F13" s="4"/>
+      <c r="G13" s="4"/>
+      <c r="H13" s="4"/>
+    </row>
+    <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4" t="s">
+        <v>22</v>
+      </c>
+      <c r="B14" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C14" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="D14" s="8" t="s">
+        <v>62</v>
+      </c>
+      <c r="E14" s="4"/>
+      <c r="F14" s="4"/>
+      <c r="G14" s="4"/>
+      <c r="H14" s="4"/>
+    </row>
+    <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B15" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C15" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D15" s="7" t="s">
+        <v>13</v>
+      </c>
+      <c r="E15" s="4"/>
+      <c r="F15" s="4"/>
+      <c r="G15" s="4"/>
+      <c r="H15" s="4"/>
+    </row>
+    <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="4"/>
+      <c r="G16" s="4"/>
+      <c r="H16" s="4"/>
+    </row>
+    <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="7"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="4"/>
+      <c r="G17" s="4"/>
+      <c r="H17" s="4"/>
+    </row>
+    <row r="18" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="7"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="4"/>
+      <c r="G18" s="4"/>
+      <c r="H18" s="4"/>
+    </row>
+    <row r="19" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="7"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="4"/>
+      <c r="G19" s="4"/>
+      <c r="H19" s="4"/>
+    </row>
+    <row r="20" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="7"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="4"/>
+      <c r="G20" s="4"/>
+      <c r="H20" s="4"/>
+    </row>
+    <row r="21" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="8"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="4"/>
+      <c r="G21" s="4"/>
+      <c r="H21" s="4"/>
+    </row>
+    <row r="22" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="7"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="4"/>
+      <c r="G22" s="4"/>
+      <c r="H22" s="4"/>
+    </row>
+    <row r="23" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="7"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="4"/>
+      <c r="G23" s="4"/>
+      <c r="H23" s="4"/>
+    </row>
+    <row r="24" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="7"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="4"/>
+      <c r="G24" s="4"/>
+      <c r="H24" s="4"/>
+    </row>
+    <row r="25" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="7"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="4"/>
+      <c r="G25" s="4"/>
+      <c r="H25" s="4"/>
+    </row>
+    <row r="26" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="4"/>
+      <c r="G26" s="4"/>
+      <c r="H26" s="4"/>
+    </row>
+    <row r="27" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="4"/>
+      <c r="G27" s="4"/>
+      <c r="H27" s="4"/>
+    </row>
+    <row r="28" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="4"/>
+      <c r="G28" s="4"/>
+      <c r="H28" s="4"/>
+    </row>
+    <row r="29" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="4"/>
+      <c r="G29" s="4"/>
+      <c r="H29" s="4"/>
+    </row>
+    <row r="30" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="4"/>
+      <c r="G30" s="4"/>
+      <c r="H30" s="4"/>
+    </row>
+    <row r="31" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+      <c r="F31" s="4"/>
+      <c r="G31" s="4"/>
+      <c r="H31" s="4"/>
+    </row>
+    <row r="32" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
+      <c r="F32" s="4"/>
+      <c r="G32" s="4"/>
+      <c r="H32" s="4"/>
+    </row>
+    <row r="33" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A33" s="4"/>
+      <c r="B33" s="4"/>
+      <c r="C33" s="4"/>
+      <c r="D33" s="4"/>
+      <c r="E33" s="4"/>
+      <c r="F33" s="4"/>
+      <c r="G33" s="4"/>
+      <c r="H33" s="4"/>
+    </row>
+    <row r="34" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A34" s="4"/>
+      <c r="B34" s="4"/>
+      <c r="C34" s="4"/>
+      <c r="D34" s="4"/>
+      <c r="E34" s="4"/>
+      <c r="F34" s="4"/>
+      <c r="G34" s="4"/>
+      <c r="H34" s="4"/>
+    </row>
+    <row r="35" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A35" s="4"/>
+      <c r="B35" s="4"/>
+      <c r="C35" s="4"/>
+      <c r="D35" s="4"/>
+      <c r="E35" s="4"/>
+      <c r="F35" s="4"/>
+      <c r="G35" s="4"/>
+      <c r="H35" s="4"/>
+    </row>
+    <row r="36" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A36" s="4"/>
+      <c r="B36" s="4"/>
+      <c r="C36" s="4"/>
+      <c r="D36" s="4"/>
+      <c r="E36" s="4"/>
+      <c r="F36" s="4"/>
+      <c r="G36" s="4"/>
+      <c r="H36" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:F32"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B12" sqref="B12"/>
+      <selection activeCell="B17" sqref="B17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -498,7 +1092,7 @@
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -508,6 +1102,300 @@
       <c r="C1" t="s">
         <v>2</v>
       </c>
+    </row>
+    <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A2" s="4" t="s">
+        <v>26</v>
+      </c>
+      <c r="B2" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C2" s="4" t="s">
+        <v>33</v>
+      </c>
+      <c r="D2" s="4"/>
+      <c r="E2" s="4"/>
+      <c r="F2" s="2"/>
+    </row>
+    <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A3" s="4" t="s">
+        <v>27</v>
+      </c>
+      <c r="B3" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C3" s="4" t="s">
+        <v>34</v>
+      </c>
+      <c r="D3" s="4"/>
+      <c r="E3" s="4"/>
+      <c r="F3" s="2"/>
+    </row>
+    <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A4" s="4" t="s">
+        <v>28</v>
+      </c>
+      <c r="B4" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C4" s="4" t="s">
+        <v>35</v>
+      </c>
+      <c r="D4" s="4"/>
+      <c r="E4" s="4"/>
+      <c r="F4" s="2"/>
+    </row>
+    <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A5" s="4" t="s">
+        <v>29</v>
+      </c>
+      <c r="B5" s="4" t="s">
+        <v>32</v>
+      </c>
+      <c r="C5" s="4" t="s">
+        <v>36</v>
+      </c>
+      <c r="D5" s="4"/>
+      <c r="E5" s="4"/>
+      <c r="F5" s="2"/>
+    </row>
+    <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A6" s="4" t="s">
+        <v>30</v>
+      </c>
+      <c r="B6" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>54</v>
+      </c>
+      <c r="D6" s="4"/>
+      <c r="E6" s="4"/>
+      <c r="F6" s="2"/>
+    </row>
+    <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A7" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="B7" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C7" s="4" t="s">
+        <v>55</v>
+      </c>
+      <c r="D7" s="4"/>
+      <c r="E7" s="4"/>
+      <c r="F7" s="2"/>
+    </row>
+    <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A8" s="4" t="s">
+        <v>52</v>
+      </c>
+      <c r="B8" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C8" s="4" t="s">
+        <v>56</v>
+      </c>
+      <c r="D8" s="4"/>
+      <c r="E8" s="4"/>
+      <c r="F8" s="2"/>
+    </row>
+    <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A9" s="4" t="s">
+        <v>53</v>
+      </c>
+      <c r="B9" s="4" t="s">
+        <v>51</v>
+      </c>
+      <c r="C9" s="4" t="s">
+        <v>57</v>
+      </c>
+      <c r="D9" s="4"/>
+      <c r="E9" s="4"/>
+      <c r="F9" s="2"/>
+    </row>
+    <row r="10" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A10" s="4"/>
+      <c r="B10" s="4"/>
+      <c r="C10" s="4"/>
+      <c r="D10" s="4"/>
+      <c r="E10" s="4"/>
+      <c r="F10" s="2"/>
+    </row>
+    <row r="11" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A11" s="4"/>
+      <c r="B11" s="4"/>
+      <c r="C11" s="4"/>
+      <c r="D11" s="4"/>
+      <c r="E11" s="4"/>
+      <c r="F11" s="2"/>
+    </row>
+    <row r="12" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A12" s="4"/>
+      <c r="B12" s="4"/>
+      <c r="C12" s="4"/>
+      <c r="D12" s="4"/>
+      <c r="E12" s="4"/>
+      <c r="F12" s="2"/>
+    </row>
+    <row r="13" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A13" s="4"/>
+      <c r="B13" s="4"/>
+      <c r="C13" s="4"/>
+      <c r="D13" s="4"/>
+      <c r="E13" s="4"/>
+      <c r="F13" s="2"/>
+    </row>
+    <row r="14" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A14" s="4"/>
+      <c r="B14" s="4"/>
+      <c r="C14" s="4"/>
+      <c r="D14" s="4"/>
+      <c r="E14" s="4"/>
+      <c r="F14" s="2"/>
+    </row>
+    <row r="15" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A15" s="4"/>
+      <c r="B15" s="4"/>
+      <c r="C15" s="4"/>
+      <c r="D15" s="4"/>
+      <c r="E15" s="4"/>
+      <c r="F15" s="2"/>
+    </row>
+    <row r="16" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A16" s="4"/>
+      <c r="B16" s="4"/>
+      <c r="C16" s="4"/>
+      <c r="D16" s="4"/>
+      <c r="E16" s="4"/>
+      <c r="F16" s="2"/>
+    </row>
+    <row r="17" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A17" s="4"/>
+      <c r="B17" s="4"/>
+      <c r="C17" s="4"/>
+      <c r="D17" s="4"/>
+      <c r="E17" s="4"/>
+      <c r="F17" s="2"/>
+    </row>
+    <row r="18" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A18" s="4"/>
+      <c r="B18" s="4"/>
+      <c r="C18" s="4"/>
+      <c r="D18" s="4"/>
+      <c r="E18" s="4"/>
+      <c r="F18" s="2"/>
+    </row>
+    <row r="19" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A19" s="4"/>
+      <c r="B19" s="4"/>
+      <c r="C19" s="4"/>
+      <c r="D19" s="4"/>
+      <c r="E19" s="4"/>
+      <c r="F19" s="2"/>
+    </row>
+    <row r="20" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A20" s="4"/>
+      <c r="B20" s="4"/>
+      <c r="C20" s="4"/>
+      <c r="D20" s="4"/>
+      <c r="E20" s="4"/>
+      <c r="F20" s="2"/>
+    </row>
+    <row r="21" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A21" s="4"/>
+      <c r="B21" s="4"/>
+      <c r="C21" s="4"/>
+      <c r="D21" s="4"/>
+      <c r="E21" s="4"/>
+      <c r="F21" s="2"/>
+    </row>
+    <row r="22" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A22" s="4"/>
+      <c r="B22" s="4"/>
+      <c r="C22" s="4"/>
+      <c r="D22" s="4"/>
+      <c r="E22" s="4"/>
+      <c r="F22" s="2"/>
+    </row>
+    <row r="23" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A23" s="4"/>
+      <c r="B23" s="4"/>
+      <c r="C23" s="4"/>
+      <c r="D23" s="4"/>
+      <c r="E23" s="4"/>
+      <c r="F23" s="2"/>
+    </row>
+    <row r="24" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A24" s="4"/>
+      <c r="B24" s="4"/>
+      <c r="C24" s="4"/>
+      <c r="D24" s="4"/>
+      <c r="E24" s="4"/>
+      <c r="F24" s="2"/>
+    </row>
+    <row r="25" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A25" s="4"/>
+      <c r="B25" s="4"/>
+      <c r="C25" s="4"/>
+      <c r="D25" s="4"/>
+      <c r="E25" s="4"/>
+      <c r="F25" s="2"/>
+    </row>
+    <row r="26" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A26" s="4"/>
+      <c r="B26" s="4"/>
+      <c r="C26" s="4"/>
+      <c r="D26" s="4"/>
+      <c r="E26" s="4"/>
+      <c r="F26" s="2"/>
+    </row>
+    <row r="27" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A27" s="4"/>
+      <c r="B27" s="4"/>
+      <c r="C27" s="4"/>
+      <c r="D27" s="4"/>
+      <c r="E27" s="4"/>
+      <c r="F27" s="2"/>
+    </row>
+    <row r="28" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A28" s="4"/>
+      <c r="B28" s="4"/>
+      <c r="C28" s="4"/>
+      <c r="D28" s="4"/>
+      <c r="E28" s="4"/>
+      <c r="F28" s="2"/>
+    </row>
+    <row r="29" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A29" s="4"/>
+      <c r="B29" s="4"/>
+      <c r="C29" s="4"/>
+      <c r="D29" s="4"/>
+      <c r="E29" s="4"/>
+      <c r="F29" s="2"/>
+    </row>
+    <row r="30" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A30" s="4"/>
+      <c r="B30" s="4"/>
+      <c r="C30" s="4"/>
+      <c r="D30" s="4"/>
+      <c r="E30" s="4"/>
+      <c r="F30" s="2"/>
+    </row>
+    <row r="31" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A31" s="4"/>
+      <c r="B31" s="4"/>
+      <c r="C31" s="4"/>
+      <c r="D31" s="4"/>
+      <c r="E31" s="4"/>
+    </row>
+    <row r="32" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
+      <c r="A32" s="4"/>
+      <c r="B32" s="4"/>
+      <c r="C32" s="4"/>
+      <c r="D32" s="4"/>
+      <c r="E32" s="4"/>
     </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
@@ -516,10 +1404,10 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:C1"/>
+  <dimension ref="A1:C2"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C13" sqref="C13"/>
+      <selection activeCell="C20" sqref="C20"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -540,6 +1428,17 @@
         <v>2</v>
       </c>
     </row>
+    <row r="2" spans="1:3" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>58</v>
+      </c>
+      <c r="B2" t="s">
+        <v>24</v>
+      </c>
+      <c r="C2" t="s">
+        <v>59</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>

--- a/api-doc/pagination.xlsx
+++ b/api-doc/pagination.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="85" uniqueCount="64">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
   <si>
     <t>名字</t>
   </si>
@@ -208,6 +208,15 @@
   </si>
   <si>
     <t>''</t>
+  </si>
+  <si>
+    <t>mode</t>
+  </si>
+  <si>
+    <t>配置需使用的pagination模板</t>
+  </si>
+  <si>
+    <t>'mode1'</t>
   </si>
 </sst>
 </file>
@@ -585,7 +594,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K15" sqref="K15"/>
+      <selection activeCell="C8" sqref="C8"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,16 +639,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>37</v>
+        <v>64</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D3" s="6">
-        <v>20</v>
+        <v>65</v>
+      </c>
+      <c r="D3" s="5" t="s">
+        <v>66</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -648,16 +657,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D4" s="5">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D4" s="6">
+        <v>20</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -666,16 +675,16 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>50</v>
-      </c>
-      <c r="D5" s="6" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D5" s="5">
+        <v>3</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -684,15 +693,15 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="5">
+        <v>50</v>
+      </c>
+      <c r="D6" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E6" s="4"/>
@@ -702,16 +711,16 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>47</v>
-      </c>
-      <c r="D7" s="6" t="s">
-        <v>48</v>
+        <v>49</v>
+      </c>
+      <c r="D7" s="5">
+        <v>1</v>
       </c>
       <c r="E7" s="4"/>
       <c r="F7" s="4"/>
@@ -720,16 +729,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D8" s="7" t="b">
-        <v>0</v>
+        <v>47</v>
+      </c>
+      <c r="D8" s="6" t="s">
+        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -738,16 +747,16 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D9" s="5" t="b">
-        <v>1</v>
+        <v>45</v>
+      </c>
+      <c r="D9" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -756,16 +765,16 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>14</v>
+        <v>43</v>
       </c>
       <c r="B10" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D10" s="8" t="s">
-        <v>63</v>
+        <v>46</v>
+      </c>
+      <c r="D10" s="5" t="b">
+        <v>1</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -774,16 +783,16 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="D11" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
@@ -792,16 +801,16 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>18</v>
+        <v>16</v>
       </c>
       <c r="B12" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>19</v>
-      </c>
-      <c r="D12" s="7" t="b">
-        <v>0</v>
+        <v>17</v>
+      </c>
+      <c r="D12" s="8" t="s">
+        <v>61</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -810,16 +819,16 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>20</v>
+        <v>18</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>21</v>
-      </c>
-      <c r="D13" s="7">
-        <v>3000</v>
+        <v>19</v>
+      </c>
+      <c r="D13" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -828,16 +837,16 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>22</v>
+        <v>20</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>23</v>
-      </c>
-      <c r="D14" s="8" t="s">
-        <v>62</v>
+        <v>21</v>
+      </c>
+      <c r="D14" s="7">
+        <v>3000</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -846,16 +855,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>24</v>
+        <v>22</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D15" s="7" t="s">
-        <v>13</v>
+        <v>23</v>
+      </c>
+      <c r="D15" s="8" t="s">
+        <v>62</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -863,9 +872,18 @@
       <c r="H15" s="4"/>
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A16" s="4"/>
-      <c r="B16" s="4"/>
-      <c r="C16" s="4"/>
+      <c r="A16" s="4" t="s">
+        <v>24</v>
+      </c>
+      <c r="B16" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C16" s="4" t="s">
+        <v>25</v>
+      </c>
+      <c r="D16" s="7" t="s">
+        <v>13</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>

--- a/api-doc/pagination.xlsx
+++ b/api-doc/pagination.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="89" uniqueCount="67">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
   <si>
     <t>名字</t>
   </si>
@@ -57,9 +57,6 @@
     <t>object</t>
   </si>
   <si>
-    <t>null</t>
-  </si>
-  <si>
     <t>url</t>
   </si>
   <si>
@@ -198,25 +195,22 @@
     <t>更新pagination</t>
   </si>
   <si>
-    <t>'s-'</t>
-  </si>
-  <si>
-    <t>'GET'</t>
-  </si>
-  <si>
-    <t>'list'</t>
-  </si>
-  <si>
-    <t>''</t>
-  </si>
-  <si>
     <t>mode</t>
   </si>
   <si>
     <t>配置需使用的pagination模板</t>
   </si>
   <si>
-    <t>'mode1'</t>
+    <t>"s-"</t>
+  </si>
+  <si>
+    <t>"mode1"</t>
+  </si>
+  <si>
+    <t>"GET"</t>
+  </si>
+  <si>
+    <t>"list"</t>
   </si>
 </sst>
 </file>
@@ -593,8 +587,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C8" sqref="C8"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="D17" sqref="D17"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -630,7 +624,7 @@
         <v>7</v>
       </c>
       <c r="D2" s="5" t="s">
-        <v>60</v>
+        <v>61</v>
       </c>
       <c r="E2" s="4"/>
       <c r="F2" s="4"/>
@@ -639,16 +633,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>64</v>
+        <v>59</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>65</v>
+        <v>60</v>
       </c>
       <c r="D3" s="5" t="s">
-        <v>66</v>
+        <v>62</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -657,7 +651,7 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B4" s="4" t="s">
         <v>8</v>
@@ -675,13 +669,13 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>44</v>
+        <v>43</v>
       </c>
       <c r="D5" s="5">
         <v>3</v>
@@ -693,13 +687,13 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>50</v>
+        <v>49</v>
       </c>
       <c r="D6" s="6" t="b">
         <v>1</v>
@@ -711,13 +705,13 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>49</v>
+        <v>48</v>
       </c>
       <c r="D7" s="5">
         <v>1</v>
@@ -729,16 +723,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B8" s="4" t="s">
         <v>11</v>
       </c>
       <c r="C8" s="4" t="s">
+        <v>46</v>
+      </c>
+      <c r="D8" s="6" t="s">
         <v>47</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>48</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -747,13 +741,13 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B9" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>45</v>
+        <v>44</v>
       </c>
       <c r="D9" s="7" t="b">
         <v>0</v>
@@ -765,13 +759,13 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>43</v>
+        <v>42</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>46</v>
+        <v>45</v>
       </c>
       <c r="D10" s="5" t="b">
         <v>1</v>
@@ -783,17 +777,15 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>14</v>
+        <v>13</v>
       </c>
       <c r="B11" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>15</v>
-      </c>
-      <c r="D11" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D11" s="8"/>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -801,16 +793,16 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>16</v>
+        <v>15</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>17</v>
+        <v>16</v>
       </c>
       <c r="D12" s="8" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
@@ -819,13 +811,13 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>18</v>
+        <v>17</v>
       </c>
       <c r="B13" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>19</v>
+        <v>18</v>
       </c>
       <c r="D13" s="7" t="b">
         <v>0</v>
@@ -837,13 +829,13 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>20</v>
+        <v>19</v>
       </c>
       <c r="B14" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>21</v>
+        <v>20</v>
       </c>
       <c r="D14" s="7">
         <v>3000</v>
@@ -855,16 +847,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>22</v>
+        <v>21</v>
       </c>
       <c r="B15" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>23</v>
+        <v>22</v>
       </c>
       <c r="D15" s="8" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -873,17 +865,15 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>24</v>
+        <v>23</v>
       </c>
       <c r="B16" s="4" t="s">
         <v>12</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>25</v>
-      </c>
-      <c r="D16" s="7" t="s">
-        <v>13</v>
-      </c>
+        <v>24</v>
+      </c>
+      <c r="D16" s="7"/>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
@@ -1123,13 +1113,13 @@
     </row>
     <row r="2" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A2" s="4" t="s">
-        <v>26</v>
+        <v>25</v>
       </c>
       <c r="B2" s="4" t="s">
+        <v>31</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>32</v>
-      </c>
-      <c r="C2" s="4" t="s">
-        <v>33</v>
       </c>
       <c r="D2" s="4"/>
       <c r="E2" s="4"/>
@@ -1137,13 +1127,13 @@
     </row>
     <row r="3" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>27</v>
+        <v>26</v>
       </c>
       <c r="B3" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>34</v>
+        <v>33</v>
       </c>
       <c r="D3" s="4"/>
       <c r="E3" s="4"/>
@@ -1151,13 +1141,13 @@
     </row>
     <row r="4" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>28</v>
+        <v>27</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>35</v>
+        <v>34</v>
       </c>
       <c r="D4" s="4"/>
       <c r="E4" s="4"/>
@@ -1165,13 +1155,13 @@
     </row>
     <row r="5" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>29</v>
+        <v>28</v>
       </c>
       <c r="B5" s="4" t="s">
-        <v>32</v>
+        <v>31</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>36</v>
+        <v>35</v>
       </c>
       <c r="D5" s="4"/>
       <c r="E5" s="4"/>
@@ -1179,13 +1169,13 @@
     </row>
     <row r="6" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>30</v>
+        <v>29</v>
       </c>
       <c r="B6" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>54</v>
+        <v>53</v>
       </c>
       <c r="D6" s="4"/>
       <c r="E6" s="4"/>
@@ -1193,13 +1183,13 @@
     </row>
     <row r="7" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>31</v>
+        <v>30</v>
       </c>
       <c r="B7" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>55</v>
+        <v>54</v>
       </c>
       <c r="D7" s="4"/>
       <c r="E7" s="4"/>
@@ -1207,13 +1197,13 @@
     </row>
     <row r="8" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>52</v>
+        <v>51</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>56</v>
+        <v>55</v>
       </c>
       <c r="D8" s="4"/>
       <c r="E8" s="4"/>
@@ -1221,13 +1211,13 @@
     </row>
     <row r="9" spans="1:6" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>53</v>
+        <v>52</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>51</v>
+        <v>50</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>57</v>
+        <v>56</v>
       </c>
       <c r="D9" s="4"/>
       <c r="E9" s="4"/>
@@ -1424,8 +1414,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C20" sqref="C20"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1448,13 +1438,13 @@
     </row>
     <row r="2" spans="1:3" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
+        <v>57</v>
+      </c>
+      <c r="B2" t="s">
+        <v>23</v>
+      </c>
+      <c r="C2" t="s">
         <v>58</v>
-      </c>
-      <c r="B2" t="s">
-        <v>24</v>
-      </c>
-      <c r="C2" t="s">
-        <v>59</v>
       </c>
     </row>
   </sheetData>

--- a/api-doc/pagination.xlsx
+++ b/api-doc/pagination.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="6" lowestEdited="4" rupBuild="14420"/>
   <workbookPr filterPrivacy="1" defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010" activeTab="2"/>
+    <workbookView xWindow="240" yWindow="105" windowWidth="14805" windowHeight="8010"/>
   </bookViews>
   <sheets>
     <sheet name="properties" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="87" uniqueCount="65">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="91" uniqueCount="68">
   <si>
     <t>名字</t>
   </si>
@@ -211,6 +211,15 @@
   </si>
   <si>
     <t>"list"</t>
+  </si>
+  <si>
+    <t>lang</t>
+  </si>
+  <si>
+    <t>多语言，（'zh_CN' | 'en_US'）</t>
+  </si>
+  <si>
+    <t>"zh_CN"</t>
   </si>
 </sst>
 </file>
@@ -259,7 +268,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="9">
+  <cellXfs count="10">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left" vertical="top"/>
@@ -280,6 +289,9 @@
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
       <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyFont="1" applyAlignment="1">
+      <alignment vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -587,16 +599,16 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:H36"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="D17" sqref="D17"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C12" sqref="C12"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="18.140625" customWidth="1"/>
-    <col min="2" max="2" width="18.28515625" customWidth="1"/>
-    <col min="3" max="3" width="66.140625" customWidth="1"/>
-    <col min="4" max="4" width="23.140625" customWidth="1"/>
+    <col min="1" max="1" width="18.125" customWidth="1"/>
+    <col min="2" max="2" width="18.25" customWidth="1"/>
+    <col min="3" max="3" width="66.125" customWidth="1"/>
+    <col min="4" max="4" width="23.125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:8" x14ac:dyDescent="0.25">
@@ -633,16 +645,16 @@
     </row>
     <row r="3" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A3" s="4" t="s">
-        <v>59</v>
+        <v>65</v>
       </c>
       <c r="B3" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>60</v>
-      </c>
-      <c r="D3" s="5" t="s">
-        <v>62</v>
+        <v>66</v>
+      </c>
+      <c r="D3" s="9" t="s">
+        <v>67</v>
       </c>
       <c r="E3" s="4"/>
       <c r="F3" s="4"/>
@@ -651,16 +663,16 @@
     </row>
     <row r="4" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A4" s="4" t="s">
-        <v>36</v>
+        <v>59</v>
       </c>
       <c r="B4" s="4" t="s">
-        <v>8</v>
+        <v>6</v>
       </c>
       <c r="C4" s="4" t="s">
-        <v>9</v>
-      </c>
-      <c r="D4" s="6">
-        <v>20</v>
+        <v>60</v>
+      </c>
+      <c r="D4" s="5" t="s">
+        <v>62</v>
       </c>
       <c r="E4" s="4"/>
       <c r="F4" s="4"/>
@@ -669,16 +681,16 @@
     </row>
     <row r="5" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A5" s="4" t="s">
-        <v>37</v>
+        <v>36</v>
       </c>
       <c r="B5" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C5" s="4" t="s">
-        <v>43</v>
-      </c>
-      <c r="D5" s="5">
-        <v>3</v>
+        <v>9</v>
+      </c>
+      <c r="D5" s="6">
+        <v>20</v>
       </c>
       <c r="E5" s="4"/>
       <c r="F5" s="4"/>
@@ -687,16 +699,16 @@
     </row>
     <row r="6" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A6" s="4" t="s">
-        <v>38</v>
+        <v>37</v>
       </c>
       <c r="B6" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C6" s="4" t="s">
-        <v>49</v>
-      </c>
-      <c r="D6" s="6" t="b">
-        <v>1</v>
+        <v>43</v>
+      </c>
+      <c r="D6" s="5">
+        <v>3</v>
       </c>
       <c r="E6" s="4"/>
       <c r="F6" s="4"/>
@@ -705,15 +717,15 @@
     </row>
     <row r="7" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A7" s="4" t="s">
-        <v>39</v>
+        <v>38</v>
       </c>
       <c r="B7" s="4" t="s">
         <v>8</v>
       </c>
       <c r="C7" s="4" t="s">
-        <v>48</v>
-      </c>
-      <c r="D7" s="5">
+        <v>49</v>
+      </c>
+      <c r="D7" s="6" t="b">
         <v>1</v>
       </c>
       <c r="E7" s="4"/>
@@ -723,16 +735,16 @@
     </row>
     <row r="8" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A8" s="4" t="s">
-        <v>40</v>
+        <v>39</v>
       </c>
       <c r="B8" s="4" t="s">
-        <v>11</v>
+        <v>8</v>
       </c>
       <c r="C8" s="4" t="s">
-        <v>46</v>
-      </c>
-      <c r="D8" s="6" t="s">
-        <v>47</v>
+        <v>48</v>
+      </c>
+      <c r="D8" s="5">
+        <v>1</v>
       </c>
       <c r="E8" s="4"/>
       <c r="F8" s="4"/>
@@ -741,16 +753,16 @@
     </row>
     <row r="9" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A9" s="4" t="s">
-        <v>41</v>
+        <v>40</v>
       </c>
       <c r="B9" s="4" t="s">
-        <v>10</v>
+        <v>11</v>
       </c>
       <c r="C9" s="4" t="s">
-        <v>44</v>
-      </c>
-      <c r="D9" s="7" t="b">
-        <v>0</v>
+        <v>46</v>
+      </c>
+      <c r="D9" s="6" t="s">
+        <v>47</v>
       </c>
       <c r="E9" s="4"/>
       <c r="F9" s="4"/>
@@ -759,16 +771,16 @@
     </row>
     <row r="10" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A10" s="4" t="s">
-        <v>42</v>
+        <v>41</v>
       </c>
       <c r="B10" s="4" t="s">
         <v>10</v>
       </c>
       <c r="C10" s="4" t="s">
-        <v>45</v>
-      </c>
-      <c r="D10" s="5" t="b">
-        <v>1</v>
+        <v>44</v>
+      </c>
+      <c r="D10" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E10" s="4"/>
       <c r="F10" s="4"/>
@@ -777,15 +789,17 @@
     </row>
     <row r="11" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A11" s="4" t="s">
-        <v>13</v>
+        <v>42</v>
       </c>
       <c r="B11" s="4" t="s">
-        <v>6</v>
+        <v>10</v>
       </c>
       <c r="C11" s="4" t="s">
-        <v>14</v>
-      </c>
-      <c r="D11" s="8"/>
+        <v>45</v>
+      </c>
+      <c r="D11" s="5" t="b">
+        <v>1</v>
+      </c>
       <c r="E11" s="4"/>
       <c r="F11" s="4"/>
       <c r="G11" s="4"/>
@@ -793,17 +807,15 @@
     </row>
     <row r="12" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A12" s="4" t="s">
-        <v>15</v>
+        <v>13</v>
       </c>
       <c r="B12" s="4" t="s">
         <v>6</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>16</v>
-      </c>
-      <c r="D12" s="8" t="s">
-        <v>63</v>
-      </c>
+        <v>14</v>
+      </c>
+      <c r="D12" s="8"/>
       <c r="E12" s="4"/>
       <c r="F12" s="4"/>
       <c r="G12" s="4"/>
@@ -811,16 +823,16 @@
     </row>
     <row r="13" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A13" s="4" t="s">
-        <v>17</v>
+        <v>15</v>
       </c>
       <c r="B13" s="4" t="s">
-        <v>10</v>
+        <v>6</v>
       </c>
       <c r="C13" s="4" t="s">
-        <v>18</v>
-      </c>
-      <c r="D13" s="7" t="b">
-        <v>0</v>
+        <v>16</v>
+      </c>
+      <c r="D13" s="8" t="s">
+        <v>63</v>
       </c>
       <c r="E13" s="4"/>
       <c r="F13" s="4"/>
@@ -829,16 +841,16 @@
     </row>
     <row r="14" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A14" s="4" t="s">
-        <v>19</v>
+        <v>17</v>
       </c>
       <c r="B14" s="4" t="s">
-        <v>8</v>
+        <v>10</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>20</v>
-      </c>
-      <c r="D14" s="7">
-        <v>3000</v>
+        <v>18</v>
+      </c>
+      <c r="D14" s="7" t="b">
+        <v>0</v>
       </c>
       <c r="E14" s="4"/>
       <c r="F14" s="4"/>
@@ -847,16 +859,16 @@
     </row>
     <row r="15" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A15" s="4" t="s">
-        <v>21</v>
+        <v>19</v>
       </c>
       <c r="B15" s="4" t="s">
-        <v>6</v>
+        <v>8</v>
       </c>
       <c r="C15" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="D15" s="8" t="s">
-        <v>64</v>
+        <v>20</v>
+      </c>
+      <c r="D15" s="7">
+        <v>3000</v>
       </c>
       <c r="E15" s="4"/>
       <c r="F15" s="4"/>
@@ -865,24 +877,32 @@
     </row>
     <row r="16" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
       <c r="A16" s="4" t="s">
-        <v>23</v>
+        <v>21</v>
       </c>
       <c r="B16" s="4" t="s">
-        <v>12</v>
+        <v>6</v>
       </c>
       <c r="C16" s="4" t="s">
-        <v>24</v>
-      </c>
-      <c r="D16" s="7"/>
+        <v>22</v>
+      </c>
+      <c r="D16" s="8" t="s">
+        <v>64</v>
+      </c>
       <c r="E16" s="4"/>
       <c r="F16" s="4"/>
       <c r="G16" s="4"/>
       <c r="H16" s="4"/>
     </row>
     <row r="17" spans="1:8" ht="15.75" x14ac:dyDescent="0.25">
-      <c r="A17" s="4"/>
-      <c r="B17" s="4"/>
-      <c r="C17" s="4"/>
+      <c r="A17" s="4" t="s">
+        <v>23</v>
+      </c>
+      <c r="B17" s="4" t="s">
+        <v>12</v>
+      </c>
+      <c r="C17" s="4" t="s">
+        <v>24</v>
+      </c>
       <c r="D17" s="7"/>
       <c r="E17" s="4"/>
       <c r="F17" s="4"/>
@@ -1095,8 +1115,8 @@
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="17.5703125" customWidth="1"/>
-    <col min="2" max="2" width="25.140625" customWidth="1"/>
+    <col min="1" max="1" width="17.625" customWidth="1"/>
+    <col min="2" max="2" width="25.125" customWidth="1"/>
     <col min="3" max="3" width="34" customWidth="1"/>
   </cols>
   <sheetData>
@@ -1414,14 +1434,14 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:C2"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C14" sqref="C14"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="15.28515625" customWidth="1"/>
-    <col min="2" max="2" width="27.85546875" customWidth="1"/>
+    <col min="1" max="1" width="15.25" customWidth="1"/>
+    <col min="2" max="2" width="27.875" customWidth="1"/>
     <col min="3" max="3" width="53" customWidth="1"/>
   </cols>
   <sheetData>

--- a/api-doc/pagination.xlsx
+++ b/api-doc/pagination.xlsx
@@ -216,10 +216,10 @@
     <t>lang</t>
   </si>
   <si>
-    <t>多语言，（'zh_CN' | 'en_US'）</t>
-  </si>
-  <si>
-    <t>"zh_CN"</t>
+    <t>多语言，（'zh' | 'en'）</t>
+  </si>
+  <si>
+    <t>zh</t>
   </si>
 </sst>
 </file>
@@ -600,7 +600,7 @@
   <dimension ref="A1:H36"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C12" sqref="C12"/>
+      <selection activeCell="C11" sqref="C11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
